--- a/jpcore-r4/feature/kohe-name-related/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/feature/kohe-name-related/StructureDefinition-jp-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2777" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2777" uniqueCount="479">
   <si>
     <t>Property</t>
   </si>
@@ -537,11 +537,11 @@
     <t>Practitioner.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName
+    <t xml:space="preserve">HumanName {http://jpfhir.jp/fhir/core/StructureDefinition/JP_HumanName}
 </t>
   </si>
   <si>
-    <t>The name(s) associated with the practitioner</t>
+    <t>Name of a human - parts and usage　人の名前情報、その一部分と使い方</t>
   </si>
   <si>
     <t>The name(s) associated with the practitioner.
@@ -572,13 +572,17 @@
 医療従事者が知られている名前。複数ある場合は、従事者が通常知られている名前を表示に使用します。</t>
   </si>
   <si>
-    <t>XCN Components</t>
-  </si>
-  <si>
-    <t>./name</t>
-  </si>
-  <si>
-    <t>./PreferredName (GivenNames, FamilyName, TitleCode)</t>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>XPN</t>
+  </si>
+  <si>
+    <t>EN (actually, PN)</t>
+  </si>
+  <si>
+    <t>ProviderName</t>
   </si>
   <si>
     <t>Practitioner.telecom</t>
@@ -1926,7 +1930,7 @@
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="107.39453125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="52.37890625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="50.94921875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -3296,7 +3300,7 @@
         <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>163</v>
@@ -3369,19 +3373,19 @@
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>76</v>
+        <v>168</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>76</v>
@@ -3389,7 +3393,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3412,19 +3416,19 @@
         <v>87</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>76</v>
@@ -3473,7 +3477,7 @@
         <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
@@ -3488,13 +3492,13 @@
         <v>98</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>76</v>
@@ -3502,7 +3506,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3528,10 +3532,10 @@
         <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3582,7 +3586,7 @@
         <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -3600,7 +3604,7 @@
         <v>76</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>76</v>
@@ -3611,7 +3615,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3640,7 +3644,7 @@
         <v>133</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M16" t="s" s="2">
         <v>135</v>
@@ -3681,19 +3685,19 @@
         <v>76</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -3711,7 +3715,7 @@
         <v>76</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
@@ -3722,7 +3726,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3748,10 +3752,10 @@
         <v>106</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3778,13 +3782,13 @@
         <v>76</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>76</v>
@@ -3802,7 +3806,7 @@
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -3811,19 +3815,19 @@
         <v>86</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>76</v>
@@ -3831,7 +3835,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3857,16 +3861,16 @@
         <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>76</v>
@@ -3915,7 +3919,7 @@
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -3930,13 +3934,13 @@
         <v>98</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>76</v>
@@ -3944,7 +3948,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3970,16 +3974,16 @@
         <v>106</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>76</v>
@@ -4004,13 +4008,13 @@
         <v>76</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>76</v>
@@ -4028,7 +4032,7 @@
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4043,13 +4047,13 @@
         <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>76</v>
@@ -4057,7 +4061,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4080,16 +4084,16 @@
         <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4139,7 +4143,7 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4154,10 +4158,10 @@
         <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -4168,7 +4172,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4191,16 +4195,16 @@
         <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4250,7 +4254,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4268,10 +4272,10 @@
         <v>129</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>76</v>
@@ -4279,7 +4283,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4302,19 +4306,19 @@
         <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>76</v>
@@ -4363,7 +4367,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4378,13 +4382,13 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -4392,7 +4396,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4418,10 +4422,10 @@
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4472,7 +4476,7 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4490,7 +4494,7 @@
         <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
@@ -4501,7 +4505,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4530,7 +4534,7 @@
         <v>133</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>135</v>
@@ -4571,19 +4575,19 @@
         <v>76</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4601,7 +4605,7 @@
         <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
@@ -4612,7 +4616,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4638,16 +4642,16 @@
         <v>106</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>76</v>
@@ -4660,7 +4664,7 @@
         <v>76</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>76</v>
@@ -4672,13 +4676,13 @@
         <v>76</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>76</v>
@@ -4696,7 +4700,7 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4711,13 +4715,13 @@
         <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>76</v>
@@ -4725,7 +4729,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4751,13 +4755,13 @@
         <v>106</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4771,7 +4775,7 @@
         <v>76</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>76</v>
@@ -4783,13 +4787,13 @@
         <v>76</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>76</v>
@@ -4807,7 +4811,7 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4822,10 +4826,10 @@
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4836,7 +4840,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4862,16 +4866,16 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>76</v>
@@ -4884,7 +4888,7 @@
         <v>76</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>76</v>
@@ -4920,7 +4924,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4935,10 +4939,10 @@
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -4949,7 +4953,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4975,10 +4979,10 @@
         <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4993,7 +4997,7 @@
         <v>76</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>76</v>
@@ -5029,7 +5033,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5044,13 +5048,13 @@
         <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
@@ -5058,11 +5062,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5084,10 +5088,10 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5102,7 +5106,7 @@
         <v>76</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>76</v>
@@ -5138,7 +5142,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5153,13 +5157,13 @@
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
@@ -5167,11 +5171,11 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5193,13 +5197,13 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5213,7 +5217,7 @@
         <v>76</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>76</v>
@@ -5249,7 +5253,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5264,10 +5268,10 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
@@ -5278,11 +5282,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5304,10 +5308,10 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5358,7 +5362,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5373,13 +5377,13 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>76</v>
@@ -5387,11 +5391,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5413,10 +5417,10 @@
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5431,7 +5435,7 @@
         <v>76</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>76</v>
@@ -5467,7 +5471,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5482,13 +5486,13 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>76</v>
@@ -5496,7 +5500,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5522,13 +5526,13 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5578,7 +5582,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5593,13 +5597,13 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
@@ -5607,7 +5611,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5630,19 +5634,19 @@
         <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>76</v>
@@ -5655,7 +5659,7 @@
         <v>76</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>76</v>
@@ -5691,7 +5695,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5706,13 +5710,13 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
@@ -5720,7 +5724,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5746,14 +5750,14 @@
         <v>106</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>76</v>
@@ -5778,13 +5782,13 @@
         <v>76</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>76</v>
@@ -5802,7 +5806,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5817,13 +5821,13 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
@@ -5831,7 +5835,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5854,17 +5858,17 @@
         <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>76</v>
@@ -5913,7 +5917,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5928,13 +5932,13 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>76</v>
@@ -5942,7 +5946,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5965,19 +5969,19 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>76</v>
@@ -6026,7 +6030,7 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6044,10 +6048,10 @@
         <v>76</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>76</v>
@@ -6055,7 +6059,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6078,16 +6082,16 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6125,17 +6129,17 @@
         <v>76</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AB38" s="2"/>
       <c r="AC38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6150,13 +6154,13 @@
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>76</v>
@@ -6164,7 +6168,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6190,10 +6194,10 @@
         <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6244,7 +6248,7 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6262,7 +6266,7 @@
         <v>76</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
@@ -6273,7 +6277,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6302,7 +6306,7 @@
         <v>133</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>135</v>
@@ -6355,7 +6359,7 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6373,7 +6377,7 @@
         <v>76</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
@@ -6384,11 +6388,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6410,10 +6414,10 @@
         <v>132</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>135</v>
@@ -6468,7 +6472,7 @@
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6497,7 +6501,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6523,14 +6527,14 @@
         <v>144</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>76</v>
@@ -6579,7 +6583,7 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6597,7 +6601,7 @@
         <v>76</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>76</v>
@@ -6608,7 +6612,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6631,16 +6635,16 @@
         <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6666,13 +6670,13 @@
         <v>76</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>76</v>
@@ -6690,7 +6694,7 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>86</v>
@@ -6708,10 +6712,10 @@
         <v>76</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
@@ -6719,7 +6723,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6742,19 +6746,19 @@
         <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>76</v>
@@ -6803,7 +6807,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6821,10 +6825,10 @@
         <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>76</v>
@@ -6832,7 +6836,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6855,16 +6859,16 @@
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6914,7 +6918,7 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -6932,7 +6936,7 @@
         <v>76</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>76</v>
@@ -6943,10 +6947,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>76</v>
@@ -6968,16 +6972,16 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7027,7 +7031,7 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7042,13 +7046,13 @@
         <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
@@ -7056,7 +7060,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7082,10 +7086,10 @@
         <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7136,7 +7140,7 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7154,7 +7158,7 @@
         <v>76</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>76</v>
@@ -7165,7 +7169,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7194,7 +7198,7 @@
         <v>133</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>135</v>
@@ -7247,7 +7251,7 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7265,7 +7269,7 @@
         <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
@@ -7276,11 +7280,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7302,10 +7306,10 @@
         <v>132</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>135</v>
@@ -7360,7 +7364,7 @@
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7389,7 +7393,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7415,14 +7419,14 @@
         <v>144</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>76</v>
@@ -7471,7 +7475,7 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7489,7 +7493,7 @@
         <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
@@ -7500,7 +7504,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7526,10 +7530,10 @@
         <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7580,7 +7584,7 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7598,7 +7602,7 @@
         <v>76</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
@@ -7609,7 +7613,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7638,7 +7642,7 @@
         <v>133</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>135</v>
@@ -7679,19 +7683,19 @@
         <v>76</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7709,7 +7713,7 @@
         <v>76</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
@@ -7720,7 +7724,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7746,16 +7750,16 @@
         <v>106</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>76</v>
@@ -7780,13 +7784,13 @@
         <v>76</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>76</v>
@@ -7804,7 +7808,7 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -7822,7 +7826,7 @@
         <v>129</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>76</v>
@@ -7833,7 +7837,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7856,19 +7860,19 @@
         <v>87</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>76</v>
@@ -7893,13 +7897,13 @@
         <v>76</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>76</v>
@@ -7917,7 +7921,7 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -7932,10 +7936,10 @@
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>76</v>
@@ -7946,7 +7950,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7972,29 +7976,29 @@
         <v>100</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="R55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>76</v>
@@ -8030,7 +8034,7 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8045,13 +8049,13 @@
         <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>76</v>
@@ -8059,7 +8063,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8085,13 +8089,13 @@
         <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8105,7 +8109,7 @@
         <v>76</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>76</v>
@@ -8141,7 +8145,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8156,13 +8160,13 @@
         <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>76</v>
@@ -8170,7 +8174,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8193,13 +8197,13 @@
         <v>87</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8250,7 +8254,7 @@
         <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8265,13 +8269,13 @@
         <v>98</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>76</v>
@@ -8279,7 +8283,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8302,16 +8306,16 @@
         <v>87</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8361,7 +8365,7 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8376,13 +8380,13 @@
         <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>76</v>
@@ -8390,7 +8394,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8413,13 +8417,13 @@
         <v>76</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8446,13 +8450,13 @@
         <v>76</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>76</v>
@@ -8470,7 +8474,7 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>86</v>
@@ -8488,10 +8492,10 @@
         <v>76</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>76</v>
@@ -8499,7 +8503,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8522,17 +8526,17 @@
         <v>76</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>76</v>
@@ -8581,7 +8585,7 @@
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8599,10 +8603,10 @@
         <v>76</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>76</v>
@@ -8610,7 +8614,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8633,13 +8637,13 @@
         <v>76</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8690,7 +8694,7 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -8708,7 +8712,7 @@
         <v>76</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>76</v>
@@ -8719,10 +8723,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>76</v>
@@ -8744,16 +8748,16 @@
         <v>76</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8803,7 +8807,7 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -8818,13 +8822,13 @@
         <v>98</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>76</v>
@@ -8832,7 +8836,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8858,10 +8862,10 @@
         <v>88</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8912,7 +8916,7 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -8930,7 +8934,7 @@
         <v>76</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>76</v>
@@ -8941,7 +8945,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8970,7 +8974,7 @@
         <v>133</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M64" t="s" s="2">
         <v>135</v>
@@ -9023,7 +9027,7 @@
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9041,7 +9045,7 @@
         <v>76</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>76</v>
@@ -9052,11 +9056,11 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9078,10 +9082,10 @@
         <v>132</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>135</v>
@@ -9136,7 +9140,7 @@
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9165,7 +9169,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9191,14 +9195,14 @@
         <v>144</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>76</v>
@@ -9247,7 +9251,7 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9265,7 +9269,7 @@
         <v>76</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>76</v>
@@ -9276,7 +9280,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9302,10 +9306,10 @@
         <v>88</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9356,7 +9360,7 @@
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9374,7 +9378,7 @@
         <v>76</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>76</v>
@@ -9385,7 +9389,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9414,7 +9418,7 @@
         <v>133</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M68" t="s" s="2">
         <v>135</v>
@@ -9455,19 +9459,19 @@
         <v>76</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AC68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -9485,7 +9489,7 @@
         <v>76</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>76</v>
@@ -9496,7 +9500,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9522,16 +9526,16 @@
         <v>106</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>76</v>
@@ -9556,13 +9560,13 @@
         <v>76</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>76</v>
@@ -9580,7 +9584,7 @@
         <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -9598,7 +9602,7 @@
         <v>129</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>76</v>
@@ -9609,7 +9613,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9632,19 +9636,19 @@
         <v>87</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>76</v>
@@ -9669,13 +9673,13 @@
         <v>76</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>76</v>
@@ -9693,7 +9697,7 @@
         <v>76</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -9708,10 +9712,10 @@
         <v>98</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>76</v>
@@ -9722,7 +9726,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9748,29 +9752,29 @@
         <v>100</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="R71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>76</v>
@@ -9806,7 +9810,7 @@
         <v>76</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -9821,13 +9825,13 @@
         <v>98</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>76</v>
@@ -9835,7 +9839,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9861,13 +9865,13 @@
         <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9881,7 +9885,7 @@
         <v>76</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>76</v>
@@ -9917,7 +9921,7 @@
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -9932,13 +9936,13 @@
         <v>98</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>76</v>
@@ -9946,7 +9950,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9969,13 +9973,13 @@
         <v>87</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10026,7 +10030,7 @@
         <v>76</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10041,13 +10045,13 @@
         <v>98</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>76</v>
@@ -10055,7 +10059,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10078,16 +10082,16 @@
         <v>87</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10137,7 +10141,7 @@
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10152,13 +10156,13 @@
         <v>98</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>76</v>
@@ -10166,7 +10170,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10189,13 +10193,13 @@
         <v>76</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10222,13 +10226,13 @@
         <v>76</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>76</v>
@@ -10246,7 +10250,7 @@
         <v>76</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>86</v>
@@ -10264,10 +10268,10 @@
         <v>76</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>76</v>
@@ -10275,7 +10279,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10298,17 +10302,17 @@
         <v>76</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>76</v>
@@ -10357,7 +10361,7 @@
         <v>76</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10375,10 +10379,10 @@
         <v>76</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>76</v>
@@ -10386,7 +10390,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10409,13 +10413,13 @@
         <v>76</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10466,7 +10470,7 @@
         <v>76</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -10484,7 +10488,7 @@
         <v>76</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>76</v>
@@ -10495,7 +10499,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10518,19 +10522,19 @@
         <v>76</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>76</v>
@@ -10579,7 +10583,7 @@
         <v>76</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -10594,13 +10598,13 @@
         <v>98</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>76</v>
